--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedhi\soumyadedhia\collegeWork\DAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedhi\soumyadedhia\collegeWork\DAN\danPractical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A5D51-5A64-47A7-A2B9-4D12539FB6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011AE64-F8FC-462A-A309-095BDF3744B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="10" activeTab="14" xr2:uid="{F87E98F4-8706-40A9-8E8B-3ED39F8C921F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="13" xr2:uid="{F87E98F4-8706-40A9-8E8B-3ED39F8C921F}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId16"/>
-    <pivotCache cacheId="42" r:id="rId17"/>
-    <pivotCache cacheId="48" r:id="rId18"/>
-    <pivotCache cacheId="53" r:id="rId19"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="5" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId18"/>
+    <pivotCache cacheId="3" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>A</t>
   </si>
@@ -409,6 +409,9 @@
   <si>
     <t>90–100</t>
   </si>
+  <si>
+    <t>Sum of  Bonus</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,6 +1149,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8E76-4894-8233-BA6B0F1287F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1161,6 +1169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8E76-4894-8233-BA6B0F1287F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1197,6 +1210,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8E76-4894-8233-BA6B0F1287F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1527,6 +1545,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1547,6 +1570,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1567,6 +1595,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1587,6 +1620,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1607,6 +1645,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1627,6 +1670,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-90B0-419F-8B22-B7F14DD5D970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3234,6 +3282,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3246,11 +3406,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q5'!$B$15:$B$16</c:f>
+              <c:f>'Q5'!$B$15:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Apple</c:v>
+                  <c:v>Apple - Sum of Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3267,7 +3427,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q5'!$A$17:$A$23</c:f>
+              <c:f>'Q5'!$A$18:$A$24</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -3300,7 +3460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q5'!$B$17:$B$23</c:f>
+              <c:f>'Q5'!$B$18:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3327,11 +3487,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q5'!$C$15:$C$16</c:f>
+              <c:f>'Q5'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Banana</c:v>
+                  <c:v>Apple - Sum of  Bonus</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3348,7 +3508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q5'!$A$17:$A$23</c:f>
+              <c:f>'Q5'!$A$18:$A$24</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -3381,18 +3541,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q5'!$C$17:$C$23</c:f>
+              <c:f>'Q5'!$C$18:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,6 +3563,171 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-F351-438B-8C56-6BED29A75CF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$D$15:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Banana - Sum of Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q5'!$A$18:$A$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>West</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2025</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>02-01-2025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>03-01-2025</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q5'!$D$18:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18F4-41BB-9A3B-3334801BC80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$E$15:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Banana - Sum of  Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q5'!$A$18:$A$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>West</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2025</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>02-01-2025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>03-01-2025</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q5'!$E$18:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18F4-41BB-9A3B-3334801BC80B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5041,7 +5369,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Q9'!$C$1</c15:sqref>
@@ -5068,7 +5396,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Q9'!$A$2:$A$7</c15:sqref>
@@ -5101,7 +5429,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Q9'!$C$2:$C$7</c15:sqref>
@@ -5132,7 +5460,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A284-4F98-9D52-A43AA0DF27B3}"/>
                   </c:ext>
@@ -6607,6 +6935,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FFEA-484B-B70A-A262153AB4DC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6622,6 +6955,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FFEA-484B-B70A-A262153AB4DC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -13696,8 +14034,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Product">
@@ -13720,7 +14058,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14181,7 +14519,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D7" sheet="Q5"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="5">
     <cacheField name="Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-01-04T00:00:00" count="3">
         <d v="2025-01-01T00:00:00"/>
@@ -14211,6 +14549,7 @@
         <n v="170"/>
       </sharedItems>
     </cacheField>
+    <cacheField name=" Bonus" numFmtId="0" formula="Sales* 0.1" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -14474,7 +14813,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68878A18-FEE2-4314-B109-2B58AF1C236C}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68878A18-FEE2-4314-B109-2B58AF1C236C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="H9:J13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -14574,9 +14913,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4FD7489-AED5-4DD4-8DF8-110FEF0AB026}" name="PivotTable4" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Date And Region" colHeaderCaption="Products">
-  <location ref="A15:C23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4FD7489-AED5-4DD4-8DF8-110FEF0AB026}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Date And Region" colHeaderCaption="Products">
+  <location ref="A15:E24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" defaultSubtotal="0">
       <items count="3">
         <item x="0"/>
@@ -14606,6 +14945,7 @@
         <item x="2"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -14634,21 +14974,31 @@
       <x v="1"/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
     <field x="2"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of  Bonus" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="8">
     <chartFormat chart="0" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -14718,6 +15068,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14732,7 +15106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B9E1973-1CD6-433C-9CE9-40F7440AD396}" name="PivotTable5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B9E1973-1CD6-433C-9CE9-40F7440AD396}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -14829,7 +15203,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10723FAD-B79D-4ED9-BBD5-A14C91ABFFFA}" name="PivotTable6" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10723FAD-B79D-4ED9-BBD5-A14C91ABFFFA}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A10:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -15283,7 +15657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9304D4-5B10-483F-A301-E9F8B7C9B107}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -15750,7 +16124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3EC7CC-C562-4708-941D-16F507D04811}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
@@ -15806,7 +16180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480AE03D-2411-464B-9A79-253303BE39E3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -15879,7 +16253,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15985,7 +16359,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16240,19 +16614,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CE821C-449C-40A6-A7F5-E5DD90FBC40C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16355,83 +16729,124 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>45658</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>100</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
         <v>150</v>
       </c>
+      <c r="E19" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>45659</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>200</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
         <v>120</v>
       </c>
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>45660</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>130</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C23" s="4">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
         <v>170</v>
+      </c>
+      <c r="E24" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -16754,7 +17169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F436C2-E908-42F5-8D37-1E5F0E399245}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A21"/>
     </sheetView>
   </sheetViews>
